--- a/DFT Calculations/gp_start_folder_empty/pyrz_properties_postprocessed_for_pyrz1_to_pyrz4.xlsx
+++ b/DFT Calculations/gp_start_folder_empty/pyrz_properties_postprocessed_for_pyrz1_to_pyrz4.xlsx
@@ -1574,7 +1574,8 @@
     <col min="22" max="22" width="24.7109375" customWidth="1"/>
     <col min="23" max="23" width="21.7109375" customWidth="1"/>
     <col min="24" max="24" width="18.7109375" customWidth="1"/>
-    <col min="25" max="27" width="21.7109375" customWidth="1"/>
+    <col min="25" max="25" width="22.7109375" customWidth="1"/>
+    <col min="26" max="27" width="21.7109375" customWidth="1"/>
     <col min="28" max="28" width="22.7109375" customWidth="1"/>
     <col min="29" max="29" width="20.7109375" customWidth="1"/>
     <col min="30" max="30" width="18.7109375" customWidth="1"/>
@@ -3251,7 +3252,7 @@
         <v>510.1791009623642</v>
       </c>
       <c r="Y11">
-        <v>0.8844135515293706</v>
+        <v>0.8844135515293707</v>
       </c>
       <c r="Z11">
         <v>-0.43312</v>
@@ -3335,7 +3336,7 @@
         <v>0.7936231836161479</v>
       </c>
       <c r="BA11">
-        <v>0.2090776789458537</v>
+        <v>0.2090776789457177</v>
       </c>
       <c r="BB11">
         <v>0.03146200649040759</v>
@@ -3427,7 +3428,7 @@
         <v>509.8156438713069</v>
       </c>
       <c r="Y12">
-        <v>0.88429739298162</v>
+        <v>0.8842973929816201</v>
       </c>
       <c r="Z12">
         <v>-0.43308</v>
@@ -3567,7 +3568,7 @@
         <v>509.5723739569484</v>
       </c>
       <c r="Y13">
-        <v>0.8841266800886008</v>
+        <v>0.884126680088601</v>
       </c>
       <c r="Z13">
         <v>-0.4346983445537583</v>
@@ -3651,7 +3652,7 @@
         <v>0.8060585952360582</v>
       </c>
       <c r="BA13">
-        <v>0.1336121210916588</v>
+        <v>0.133612121091615</v>
       </c>
       <c r="BB13">
         <v>0.02010590293918359</v>
@@ -3707,7 +3708,7 @@
         <v>0.7200180153900906</v>
       </c>
       <c r="Y14">
-        <v>0.0003796007814890158</v>
+        <v>0.0003796007814890803</v>
       </c>
       <c r="Z14">
         <v>0.002619338436138293</v>
@@ -3791,7 +3792,7 @@
         <v>0.02026167757415821</v>
       </c>
       <c r="BA14">
-        <v>0.1222975949776896</v>
+        <v>0.1222975949776491</v>
       </c>
       <c r="BB14">
         <v>0.01840329767892166</v>
@@ -3987,7 +3988,7 @@
         <v>510.1791009623642</v>
       </c>
       <c r="Y16">
-        <v>0.8844135515293706</v>
+        <v>0.8844135515293707</v>
       </c>
       <c r="Z16">
         <v>-0.43308</v>
@@ -4071,7 +4072,7 @@
         <v>0.8281951822759626</v>
       </c>
       <c r="BA16">
-        <v>0.2090776789458537</v>
+        <v>0.2090776789457177</v>
       </c>
       <c r="BB16">
         <v>0.03146200649040759</v>
@@ -4127,7 +4128,7 @@
         <v>1.368880180560325</v>
       </c>
       <c r="Y17">
-        <v>0.0006969024524038359</v>
+        <v>0.0006969024524039469</v>
       </c>
       <c r="Z17">
         <v>0.004479999999999984</v>
@@ -4211,7 +4212,7 @@
         <v>0.03457199865981464</v>
       </c>
       <c r="BA17">
-        <v>0.2090776789458537</v>
+        <v>0.2090776789457177</v>
       </c>
       <c r="BB17">
         <v>0.03146200647041952</v>
@@ -4655,7 +4656,7 @@
         <v>337.1146515838956</v>
       </c>
       <c r="Y20">
-        <v>0.9328689500459686</v>
+        <v>0.9328689500459684</v>
       </c>
       <c r="Z20">
         <v>-0.6396500000000001</v>
@@ -4721,7 +4722,7 @@
         <v>1.886709021815094</v>
       </c>
       <c r="AU20">
-        <v>3.252395268825163</v>
+        <v>3.252395268825164</v>
       </c>
       <c r="AV20">
         <v>6.774799422041132</v>
@@ -4730,7 +4731,7 @@
         <v>1.886709021815094</v>
       </c>
       <c r="AX20">
-        <v>3.252395268825163</v>
+        <v>3.252395268825164</v>
       </c>
       <c r="AY20">
         <v>5.951585126682453</v>
@@ -4795,7 +4796,7 @@
         <v>337.1146515838956</v>
       </c>
       <c r="Y21">
-        <v>0.9328689500459686</v>
+        <v>0.9328689500459684</v>
       </c>
       <c r="Z21">
         <v>-0.6396500000000001</v>
@@ -4861,7 +4862,7 @@
         <v>1.886709021815094</v>
       </c>
       <c r="AU21">
-        <v>3.252395268825163</v>
+        <v>3.252395268825164</v>
       </c>
       <c r="AV21">
         <v>6.774799422041132</v>
@@ -4870,7 +4871,7 @@
         <v>1.886709021815094</v>
       </c>
       <c r="AX21">
-        <v>3.252395268825163</v>
+        <v>3.252395268825164</v>
       </c>
       <c r="AY21">
         <v>5.951585126682453</v>
@@ -5075,7 +5076,7 @@
         <v>337.1146515838956</v>
       </c>
       <c r="Y23">
-        <v>0.9328689500459686</v>
+        <v>0.9328689500459684</v>
       </c>
       <c r="Z23">
         <v>-0.6396500000000001</v>
@@ -5141,7 +5142,7 @@
         <v>1.886709021815094</v>
       </c>
       <c r="AU23">
-        <v>3.252395268825163</v>
+        <v>3.252395268825164</v>
       </c>
       <c r="AV23">
         <v>6.774799422041132</v>
@@ -5150,7 +5151,7 @@
         <v>1.886709021815094</v>
       </c>
       <c r="AX23">
-        <v>3.252395268825163</v>
+        <v>3.252395268825164</v>
       </c>
       <c r="AY23">
         <v>5.951585126682453</v>
@@ -5215,7 +5216,7 @@
         <v>337.1146515838956</v>
       </c>
       <c r="Y24">
-        <v>0.9328689500459686</v>
+        <v>0.9328689500459684</v>
       </c>
       <c r="Z24">
         <v>-0.6396500000000001</v>
@@ -5281,7 +5282,7 @@
         <v>1.886709021815094</v>
       </c>
       <c r="AU24">
-        <v>3.252395268825163</v>
+        <v>3.252395268825164</v>
       </c>
       <c r="AV24">
         <v>6.774799422041132</v>
@@ -5290,7 +5291,7 @@
         <v>1.886709021815094</v>
       </c>
       <c r="AX24">
-        <v>3.252395268825163</v>
+        <v>3.252395268825164</v>
       </c>
       <c r="AY24">
         <v>5.951585126682453</v>
@@ -5531,7 +5532,7 @@
         <v>337.1146515838956</v>
       </c>
       <c r="Y26">
-        <v>0.9328689500459686</v>
+        <v>0.9328689500459684</v>
       </c>
       <c r="Z26">
         <v>-0.6396500000000001</v>
@@ -5597,7 +5598,7 @@
         <v>1.886709021815094</v>
       </c>
       <c r="AU26">
-        <v>3.252395268825163</v>
+        <v>3.252395268825164</v>
       </c>
       <c r="AV26">
         <v>6.774799422041132</v>
@@ -5606,7 +5607,7 @@
         <v>1.886709021815094</v>
       </c>
       <c r="AX26">
-        <v>3.252395268825163</v>
+        <v>3.252395268825164</v>
       </c>
       <c r="AY26">
         <v>5.951585126682453</v>
@@ -5707,7 +5708,7 @@
         <v>337.1146515838956</v>
       </c>
       <c r="Y27">
-        <v>0.9328689500459686</v>
+        <v>0.9328689500459684</v>
       </c>
       <c r="Z27">
         <v>-0.6396500000000001</v>
@@ -5773,7 +5774,7 @@
         <v>1.886709021815094</v>
       </c>
       <c r="AU27">
-        <v>3.252395268825163</v>
+        <v>3.252395268825164</v>
       </c>
       <c r="AV27">
         <v>6.774799422041132</v>
@@ -5782,7 +5783,7 @@
         <v>1.886709021815094</v>
       </c>
       <c r="AX27">
-        <v>3.252395268825163</v>
+        <v>3.252395268825164</v>
       </c>
       <c r="AY27">
         <v>5.951585126682453</v>
@@ -5961,7 +5962,7 @@
         <v>3.264140261329424</v>
       </c>
       <c r="AY28">
-        <v>5.900067661247692</v>
+        <v>5.900067661247697</v>
       </c>
       <c r="AZ28">
         <v>0.7987310136078716</v>
@@ -6277,7 +6278,7 @@
         <v>3.274717485845192</v>
       </c>
       <c r="AY30">
-        <v>5.998852567846546</v>
+        <v>5.99885256784655</v>
       </c>
       <c r="AZ30">
         <v>0.8083211087763068</v>
@@ -6417,7 +6418,7 @@
         <v>0.02732778224883303</v>
       </c>
       <c r="AY31">
-        <v>0.255225027414379</v>
+        <v>0.2552250274143758</v>
       </c>
       <c r="AZ31">
         <v>0.02477739147144961</v>
@@ -6557,7 +6558,7 @@
         <v>3.264140261329424</v>
       </c>
       <c r="AY32">
-        <v>5.900067661247692</v>
+        <v>5.900067661247697</v>
       </c>
       <c r="AZ32">
         <v>0.7987310136078716</v>
@@ -6837,7 +6838,7 @@
         <v>0.0458798543089789</v>
       </c>
       <c r="AY34">
-        <v>0.4284902070411105</v>
+        <v>0.4284902070411052</v>
       </c>
       <c r="AZ34">
         <v>0.04159807409601224</v>
@@ -7013,7 +7014,7 @@
         <v>3.264140261329424</v>
       </c>
       <c r="AY35">
-        <v>5.900067661247692</v>
+        <v>5.900067661247697</v>
       </c>
       <c r="AZ35">
         <v>0.7987310136078716</v>
@@ -9599,19 +9600,19 @@
         <v>508.8102207818039</v>
       </c>
       <c r="CA3">
-        <v>0.8841266800886008</v>
+        <v>0.884126680088601</v>
       </c>
       <c r="CB3">
-        <v>0.0003796007814890158</v>
+        <v>0.0003796007814890803</v>
       </c>
       <c r="CC3">
         <v>0.8837166490769668</v>
       </c>
       <c r="CD3">
-        <v>0.8844135515293706</v>
+        <v>0.8844135515293707</v>
       </c>
       <c r="CE3">
-        <v>0.0006969024524038359</v>
+        <v>0.0006969024524039469</v>
       </c>
       <c r="CF3">
         <v>0.8837166490769668</v>
@@ -10187,19 +10188,19 @@
         <v>0.8281951822759626</v>
       </c>
       <c r="JO3">
-        <v>0.1336121210916588</v>
+        <v>0.133612121091615</v>
       </c>
       <c r="JP3">
-        <v>0.1222975949776896</v>
+        <v>0.1222975949776491</v>
       </c>
       <c r="JQ3">
         <v>0</v>
       </c>
       <c r="JR3">
-        <v>0.2090776789458537</v>
+        <v>0.2090776789457177</v>
       </c>
       <c r="JS3">
-        <v>0.2090776789458537</v>
+        <v>0.2090776789457177</v>
       </c>
       <c r="JT3">
         <v>0</v>
@@ -10549,25 +10550,25 @@
         <v>337.1146515838956</v>
       </c>
       <c r="CA4">
-        <v>0.9328689500459686</v>
+        <v>0.9328689500459684</v>
       </c>
       <c r="CB4">
         <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.9328689500459686</v>
+        <v>0.9328689500459684</v>
       </c>
       <c r="CD4">
-        <v>0.9328689500459686</v>
+        <v>0.9328689500459684</v>
       </c>
       <c r="CE4">
         <v>0</v>
       </c>
       <c r="CF4">
-        <v>0.9328689500459686</v>
+        <v>0.9328689500459684</v>
       </c>
       <c r="CG4">
-        <v>0.9328689500459686</v>
+        <v>0.9328689500459684</v>
       </c>
       <c r="CH4">
         <v>-0.6396500000000001</v>
@@ -11011,25 +11012,25 @@
         <v>1.886709021815094</v>
       </c>
       <c r="HY4">
-        <v>3.252395268825163</v>
+        <v>3.252395268825164</v>
       </c>
       <c r="HZ4">
         <v>0</v>
       </c>
       <c r="IA4">
-        <v>3.252395268825163</v>
+        <v>3.252395268825164</v>
       </c>
       <c r="IB4">
-        <v>3.252395268825163</v>
+        <v>3.252395268825164</v>
       </c>
       <c r="IC4">
         <v>0</v>
       </c>
       <c r="ID4">
-        <v>3.252395268825163</v>
+        <v>3.252395268825164</v>
       </c>
       <c r="IE4">
-        <v>3.252395268825163</v>
+        <v>3.252395268825164</v>
       </c>
       <c r="IF4">
         <v>6.774799422041132</v>
@@ -11074,25 +11075,25 @@
         <v>1.886709021815094</v>
       </c>
       <c r="IT4">
-        <v>3.252395268825163</v>
+        <v>3.252395268825164</v>
       </c>
       <c r="IU4">
         <v>0</v>
       </c>
       <c r="IV4">
-        <v>3.252395268825163</v>
+        <v>3.252395268825164</v>
       </c>
       <c r="IW4">
-        <v>3.252395268825163</v>
+        <v>3.252395268825164</v>
       </c>
       <c r="IX4">
         <v>0</v>
       </c>
       <c r="IY4">
-        <v>3.252395268825163</v>
+        <v>3.252395268825164</v>
       </c>
       <c r="IZ4">
-        <v>3.252395268825163</v>
+        <v>3.252395268825164</v>
       </c>
       <c r="JA4">
         <v>5.951585126682453</v>
@@ -12045,22 +12046,22 @@
         <v>3.310020115638403</v>
       </c>
       <c r="JA5">
-        <v>5.998852567846546</v>
+        <v>5.99885256784655</v>
       </c>
       <c r="JB5">
-        <v>0.255225027414379</v>
+        <v>0.2552250274143758</v>
       </c>
       <c r="JC5">
-        <v>5.900067661247692</v>
+        <v>5.900067661247697</v>
       </c>
       <c r="JD5">
         <v>6.328557868288803</v>
       </c>
       <c r="JE5">
-        <v>0.4284902070411105</v>
+        <v>0.4284902070411052</v>
       </c>
       <c r="JF5">
-        <v>5.900067661247692</v>
+        <v>5.900067661247697</v>
       </c>
       <c r="JG5">
         <v>6.328557868288803</v>
